--- a/API Files/Acuity Research/Contacts.xlsx
+++ b/API Files/Acuity Research/Contacts.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namita\git\PE4.7Automation\API Files\Acuity Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar\git\PE4.7Automation\API Files\Acuity Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B9AF95-D674-4F11-A738-961658F9F94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="741">
   <si>
     <t>Department</t>
   </si>
@@ -2250,7 +2249,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3057,25 +3056,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="74.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="22.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>701</v>
       </c>
@@ -3176,10 +3175,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>728</v>
-      </c>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -3277,10 +3273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>728</v>
-      </c>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -3378,10 +3371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>728</v>
-      </c>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -3479,10 +3469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>728</v>
-      </c>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>44</v>
       </c>
@@ -3580,10 +3567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>728</v>
-      </c>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>52</v>
       </c>
@@ -3681,10 +3665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>728</v>
-      </c>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>60</v>
       </c>
@@ -3782,10 +3763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>728</v>
-      </c>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -3883,10 +3861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>728</v>
-      </c>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>74</v>
       </c>
@@ -3984,10 +3959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>728</v>
-      </c>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>81</v>
       </c>
@@ -4085,10 +4057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>728</v>
-      </c>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>88</v>
       </c>
@@ -4186,10 +4155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>728</v>
-      </c>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>95</v>
       </c>
@@ -4287,10 +4253,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>728</v>
-      </c>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>115</v>
       </c>
@@ -4388,10 +4351,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>728</v>
-      </c>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>123</v>
       </c>
@@ -4489,10 +4449,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>728</v>
-      </c>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>130</v>
       </c>
@@ -4590,10 +4547,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>728</v>
-      </c>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>137</v>
       </c>
@@ -4691,10 +4645,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>728</v>
-      </c>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>144</v>
       </c>
@@ -4792,10 +4743,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>728</v>
-      </c>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>150</v>
       </c>
@@ -4893,10 +4841,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>728</v>
-      </c>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>156</v>
       </c>
@@ -4994,10 +4939,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>728</v>
-      </c>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>162</v>
       </c>
@@ -5095,10 +5037,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>728</v>
-      </c>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>168</v>
       </c>
@@ -5196,10 +5135,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>728</v>
-      </c>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>174</v>
       </c>
@@ -5297,10 +5233,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>728</v>
-      </c>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>193</v>
       </c>
@@ -5398,10 +5331,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>728</v>
-      </c>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>201</v>
       </c>
@@ -5499,10 +5429,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>728</v>
-      </c>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>208</v>
       </c>
@@ -5600,10 +5527,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>728</v>
-      </c>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>215</v>
       </c>
@@ -5701,10 +5625,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>728</v>
-      </c>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>222</v>
       </c>
@@ -5802,10 +5723,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>728</v>
-      </c>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>228</v>
       </c>
@@ -5903,10 +5821,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>728</v>
-      </c>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>234</v>
       </c>
@@ -6004,10 +5919,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>728</v>
-      </c>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>240</v>
       </c>
@@ -6105,10 +6017,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>728</v>
-      </c>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>246</v>
       </c>
@@ -6206,10 +6115,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>728</v>
-      </c>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>252</v>
       </c>
@@ -6307,10 +6213,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>728</v>
-      </c>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>271</v>
       </c>
@@ -6408,10 +6311,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>728</v>
-      </c>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>279</v>
       </c>
@@ -6509,10 +6409,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>728</v>
-      </c>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>286</v>
       </c>
@@ -6610,10 +6507,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>728</v>
-      </c>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>293</v>
       </c>
@@ -6711,10 +6605,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>728</v>
-      </c>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>300</v>
       </c>
@@ -6812,10 +6703,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>728</v>
-      </c>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>306</v>
       </c>
@@ -6913,10 +6801,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>728</v>
-      </c>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>312</v>
       </c>
@@ -7014,10 +6899,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>728</v>
-      </c>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>318</v>
       </c>
@@ -7115,10 +6997,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>728</v>
-      </c>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>324</v>
       </c>
@@ -7216,10 +7095,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>728</v>
-      </c>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>330</v>
       </c>
@@ -7317,10 +7193,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>728</v>
-      </c>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>349</v>
       </c>
@@ -7418,10 +7291,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>728</v>
-      </c>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>357</v>
       </c>
@@ -7519,10 +7389,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>728</v>
-      </c>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>364</v>
       </c>
@@ -7620,10 +7487,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>728</v>
-      </c>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>371</v>
       </c>
@@ -7721,10 +7585,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>728</v>
-      </c>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>378</v>
       </c>
@@ -7822,10 +7683,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>728</v>
-      </c>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>384</v>
       </c>
@@ -7923,10 +7781,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>728</v>
-      </c>
+    <row r="49" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>390</v>
       </c>
@@ -8024,10 +7879,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>728</v>
-      </c>
+    <row r="50" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>396</v>
       </c>
@@ -8125,10 +7977,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>728</v>
-      </c>
+    <row r="51" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>402</v>
       </c>
@@ -8226,10 +8075,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>728</v>
-      </c>
+    <row r="52" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>408</v>
       </c>
@@ -8327,10 +8173,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>728</v>
-      </c>
+    <row r="53" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>425</v>
       </c>
@@ -8428,10 +8271,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>728</v>
-      </c>
+    <row r="54" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>433</v>
       </c>
@@ -8529,10 +8369,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>728</v>
-      </c>
+    <row r="55" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>440</v>
       </c>
@@ -8630,10 +8467,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>728</v>
-      </c>
+    <row r="56" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>447</v>
       </c>
@@ -8731,10 +8565,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>728</v>
-      </c>
+    <row r="57" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>454</v>
       </c>
@@ -8832,10 +8663,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>728</v>
-      </c>
+    <row r="58" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>460</v>
       </c>
@@ -8933,10 +8761,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>728</v>
-      </c>
+    <row r="59" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>466</v>
       </c>
@@ -9034,10 +8859,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>728</v>
-      </c>
+    <row r="60" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>472</v>
       </c>
@@ -9135,10 +8957,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>728</v>
-      </c>
+    <row r="61" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>478</v>
       </c>
@@ -9236,10 +9055,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>728</v>
-      </c>
+    <row r="62" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>484</v>
       </c>
@@ -9337,10 +9153,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>728</v>
-      </c>
+    <row r="63" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>496</v>
       </c>
@@ -9438,10 +9251,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>728</v>
-      </c>
+    <row r="64" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>504</v>
       </c>
@@ -9539,10 +9349,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>728</v>
-      </c>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>511</v>
       </c>
@@ -9640,10 +9447,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>728</v>
-      </c>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>518</v>
       </c>
@@ -9741,10 +9545,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>728</v>
-      </c>
+    <row r="67" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>525</v>
       </c>
@@ -9842,10 +9643,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>728</v>
-      </c>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>531</v>
       </c>
@@ -9943,10 +9741,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>728</v>
-      </c>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>537</v>
       </c>
@@ -10044,10 +9839,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>728</v>
-      </c>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>543</v>
       </c>
@@ -10145,10 +9937,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>728</v>
-      </c>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>549</v>
       </c>
@@ -10246,10 +10035,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>728</v>
-      </c>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>6</v>
       </c>
@@ -10347,10 +10133,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>728</v>
-      </c>
+    <row r="73" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>27</v>
       </c>
@@ -10448,10 +10231,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>728</v>
-      </c>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>36</v>
       </c>
@@ -10549,10 +10329,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>728</v>
-      </c>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>44</v>
       </c>
@@ -10650,10 +10427,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>728</v>
-      </c>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>52</v>
       </c>
@@ -10751,10 +10525,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>728</v>
-      </c>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>95</v>
       </c>
@@ -10852,10 +10623,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>728</v>
-      </c>
+    <row r="78" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>115</v>
       </c>
@@ -10953,10 +10721,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>728</v>
-      </c>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>123</v>
       </c>
@@ -11054,10 +10819,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>728</v>
-      </c>
+    <row r="80" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>130</v>
       </c>
@@ -11155,10 +10917,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>728</v>
-      </c>
+    <row r="81" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>137</v>
       </c>
@@ -11256,10 +11015,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>728</v>
-      </c>
+    <row r="82" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>174</v>
       </c>
@@ -11357,10 +11113,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>728</v>
-      </c>
+    <row r="83" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>193</v>
       </c>
@@ -11458,10 +11211,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>728</v>
-      </c>
+    <row r="84" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>201</v>
       </c>
@@ -11559,10 +11309,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>728</v>
-      </c>
+    <row r="85" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>208</v>
       </c>
@@ -11660,10 +11407,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>728</v>
-      </c>
+    <row r="86" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>215</v>
       </c>
@@ -11761,10 +11505,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>728</v>
-      </c>
+    <row r="87" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>252</v>
       </c>
@@ -11862,10 +11603,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>728</v>
-      </c>
+    <row r="88" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>271</v>
       </c>
@@ -11963,10 +11701,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>728</v>
-      </c>
+    <row r="89" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>279</v>
       </c>
@@ -12064,10 +11799,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>728</v>
-      </c>
+    <row r="90" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>286</v>
       </c>
@@ -12165,10 +11897,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>728</v>
-      </c>
+    <row r="91" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>293</v>
       </c>
@@ -12266,10 +11995,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>728</v>
-      </c>
+    <row r="92" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>330</v>
       </c>
@@ -12367,10 +12093,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>728</v>
-      </c>
+    <row r="93" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>349</v>
       </c>
@@ -12468,10 +12191,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>728</v>
-      </c>
+    <row r="94" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>357</v>
       </c>
@@ -12569,10 +12289,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>728</v>
-      </c>
+    <row r="95" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>364</v>
       </c>
@@ -12670,10 +12387,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>728</v>
-      </c>
+    <row r="96" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>371</v>
       </c>
@@ -12771,10 +12485,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>728</v>
-      </c>
+    <row r="97" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>408</v>
       </c>
@@ -12872,10 +12583,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>728</v>
-      </c>
+    <row r="98" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>425</v>
       </c>
@@ -12973,10 +12681,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>728</v>
-      </c>
+    <row r="99" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>433</v>
       </c>
@@ -13074,10 +12779,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>728</v>
-      </c>
+    <row r="100" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>440</v>
       </c>
@@ -13175,10 +12877,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>728</v>
-      </c>
+    <row r="101" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>447</v>
       </c>
@@ -13276,10 +12975,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>728</v>
-      </c>
+    <row r="102" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>484</v>
       </c>
@@ -13377,10 +13073,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>728</v>
-      </c>
+    <row r="103" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>496</v>
       </c>
@@ -13478,10 +13171,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>728</v>
-      </c>
+    <row r="104" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>504</v>
       </c>
@@ -13579,10 +13269,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>728</v>
-      </c>
+    <row r="105" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>511</v>
       </c>
@@ -13680,10 +13367,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>728</v>
-      </c>
+    <row r="106" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>518</v>
       </c>
@@ -13781,10 +13465,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>728</v>
-      </c>
+    <row r="107" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>625</v>
       </c>
@@ -13882,10 +13563,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>728</v>
-      </c>
+    <row r="108" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>638</v>
       </c>
@@ -13983,10 +13661,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>728</v>
-      </c>
+    <row r="109" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>644</v>
       </c>
@@ -14084,10 +13759,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>728</v>
-      </c>
+    <row r="110" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>650</v>
       </c>
@@ -14185,10 +13857,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>728</v>
-      </c>
+    <row r="111" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>656</v>
       </c>
@@ -14286,10 +13955,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>728</v>
-      </c>
+    <row r="112" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>625</v>
       </c>
@@ -14387,10 +14053,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>728</v>
-      </c>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>638</v>
       </c>
@@ -14488,10 +14151,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>728</v>
-      </c>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>644</v>
       </c>
@@ -14589,10 +14249,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>728</v>
-      </c>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>650</v>
       </c>
@@ -14690,10 +14347,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>728</v>
-      </c>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>656</v>
       </c>
@@ -14791,10 +14445,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>728</v>
-      </c>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>733</v>
       </c>
@@ -14811,10 +14462,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>728</v>
-      </c>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>734</v>
       </c>
@@ -14831,10 +14479,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>728</v>
-      </c>
+    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>735</v>
       </c>
@@ -14851,10 +14496,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>728</v>
-      </c>
+    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>736</v>
       </c>
@@ -14871,7 +14513,10 @@
         <v>665</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>728</v>
+      </c>
       <c r="B121" t="s">
         <v>666</v>
       </c>
@@ -14894,7 +14539,10 @@
         <v>630</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>728</v>
+      </c>
       <c r="B122" t="s">
         <v>669</v>
       </c>
@@ -14917,7 +14565,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>728</v>
+      </c>
       <c r="B123" t="s">
         <v>671</v>
       </c>
@@ -14940,7 +14591,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>728</v>
+      </c>
       <c r="B124" t="s">
         <v>673</v>
       </c>
@@ -14963,7 +14617,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>728</v>
+      </c>
       <c r="B125" t="s">
         <v>675</v>
       </c>
@@ -14986,7 +14643,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>728</v>
+      </c>
       <c r="B126" t="s">
         <v>676</v>
       </c>
@@ -15009,7 +14669,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>728</v>
+      </c>
       <c r="B127" t="s">
         <v>677</v>
       </c>
@@ -15032,7 +14695,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>728</v>
+      </c>
       <c r="B128" t="s">
         <v>679</v>
       </c>
@@ -15055,7 +14721,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>728</v>
+      </c>
       <c r="B129" t="s">
         <v>680</v>
       </c>
@@ -15078,7 +14747,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>728</v>
+      </c>
       <c r="B130" t="s">
         <v>681</v>
       </c>
@@ -15101,7 +14773,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>728</v>
+      </c>
       <c r="B131" t="s">
         <v>683</v>
       </c>
@@ -15124,7 +14799,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>728</v>
+      </c>
       <c r="B132" t="s">
         <v>684</v>
       </c>
@@ -15147,7 +14825,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>728</v>
+      </c>
       <c r="B133" t="s">
         <v>685</v>
       </c>
@@ -15170,7 +14851,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>728</v>
+      </c>
       <c r="B134" t="s">
         <v>687</v>
       </c>
@@ -15193,7 +14877,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>728</v>
+      </c>
       <c r="B135" t="s">
         <v>688</v>
       </c>
@@ -15216,7 +14903,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>728</v>
+      </c>
       <c r="B136" t="s">
         <v>689</v>
       </c>
@@ -15239,7 +14929,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>728</v>
+      </c>
       <c r="B137" t="s">
         <v>691</v>
       </c>
@@ -15262,7 +14955,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>728</v>
+      </c>
       <c r="B138" t="s">
         <v>692</v>
       </c>
@@ -15285,7 +14981,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>728</v>
+      </c>
       <c r="B139" t="s">
         <v>693</v>
       </c>
@@ -15308,7 +15007,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>728</v>
+      </c>
       <c r="B140" t="s">
         <v>695</v>
       </c>
@@ -15331,7 +15033,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>728</v>
+      </c>
       <c r="B141" t="s">
         <v>696</v>
       </c>
@@ -15354,7 +15059,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>728</v>
+      </c>
       <c r="B142" t="s">
         <v>697</v>
       </c>
@@ -15377,7 +15085,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>728</v>
+      </c>
       <c r="B143" t="s">
         <v>699</v>
       </c>
@@ -15400,7 +15111,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>728</v>
+      </c>
       <c r="B144" t="s">
         <v>700</v>
       </c>
